--- a/public/public/reglement_cheque_images/test-2.xlsx
+++ b/public/public/reglement_cheque_images/test-2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/milaliyouness/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC7F979D-2E7D-FD42-97F5-79969C7959FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{673969E9-7383-5D4D-B77E-BA54B8640BB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{08C66ADB-B7BC-F844-82A9-B60FFE4F7947}"/>
   </bookViews>
@@ -396,8 +396,8 @@
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -406,9 +406,6 @@
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7C2845BB-9920-3F42-8953-C4BA21D5BEB0}"/>
             </a:ext>
-            <a:ext uri="{C183D7F6-B498-43B3-948B-1728B52AA6E4}">
-              <adec:decorative xmlns:adec="http://schemas.microsoft.com/office/drawing/2017/decorative" val="0"/>
-            </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvSpPr/>
@@ -416,7 +413,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="13208000" y="1866900"/>
-          <a:ext cx="825500" cy="1168400"/>
+          <a:ext cx="825500" cy="190500"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1005,7 +1002,7 @@
   <dimension ref="A1:Q7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O3" sqref="O3"/>
+      <selection activeCell="R9" sqref="R9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1066,7 +1063,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="131" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A2" s="6">
         <v>45330</v>
       </c>
@@ -1101,7 +1098,7 @@
       <c r="N2" s="11"/>
       <c r="O2" s="11"/>
     </row>
-    <row r="3" spans="1:17" ht="92" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A3" s="6">
         <v>45330</v>
       </c>
